--- a/amk-main-public/BD.xlsx
+++ b/amk-main-public/BD.xlsx
@@ -700,7 +700,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="56">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1011,6 +1011,27 @@
       <name val="Consolas"/>
       <color rgb="FF7986E7"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <color rgb="FFB2CCD6"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <color rgb="FFBFC7D5"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <color rgb="FF7986E7"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -1159,7 +1180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="109">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -2853,6 +2874,108 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0"/>
@@ -2862,7 +2985,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="4"/>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
@@ -3993,6 +4116,43 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="48" applyFont="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="34" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="86" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="70" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="13" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="28" applyFill="1" borderId="109" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="28" applyFill="1" borderId="110" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="28" applyFill="1" borderId="111" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="28" applyFill="1" borderId="112" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="28" applyFill="1" borderId="113" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="28" applyFill="1" borderId="114" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="67" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -33713,8 +33873,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="H217" workbookViewId="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120">
-      <selection activeCell="P337" activeCellId="0" sqref="P337:P343"/>
+    <sheetView topLeftCell="A301" workbookViewId="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="X334" activeCellId="0" sqref="X334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49188,34 +49348,34 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" s="312" t="s">
+      <c r="B310" s="366" t="s">
         <v>125</v>
       </c>
-      <c r="C310" s="313" t="s">
+      <c r="C310" s="366" t="s">
         <v>22</v>
       </c>
-      <c r="D310" s="313">
+      <c r="D310" s="366">
         <v>0</v>
       </c>
-      <c r="E310" s="313">
+      <c r="E310" s="366">
         <v>44</v>
       </c>
-      <c r="F310" s="205">
+      <c r="F310" s="245">
         <v>1000</v>
       </c>
-      <c r="G310" s="313" t="s">
+      <c r="G310" s="366" t="s">
         <v>175</v>
       </c>
-      <c r="H310" s="272">
+      <c r="H310" s="391">
         <v>800</v>
       </c>
-      <c r="I310" s="314">
+      <c r="I310" s="392">
         <v>94</v>
       </c>
-      <c r="J310" s="313" t="s">
+      <c r="J310" s="366" t="s">
         <v>148</v>
       </c>
-      <c r="K310" s="313" t="s">
+      <c r="K310" s="366" t="s">
         <v>148</v>
       </c>
       <c r="L310" s="368" t="s">
@@ -49224,16 +49384,16 @@
       <c r="M310" s="368" t="s">
         <v>175</v>
       </c>
-      <c r="N310" s="264">
-        <v>380</v>
-      </c>
-      <c r="O310" s="375">
-        <v>3</v>
-      </c>
-      <c r="P310" s="205" t="s">
+      <c r="N310" s="393">
+        <v>380</v>
+      </c>
+      <c r="O310" s="393">
+        <v>3</v>
+      </c>
+      <c r="P310" s="245" t="s">
         <v>211</v>
       </c>
-      <c r="Q310" s="203" t="s">
+      <c r="Q310" s="394" t="s">
         <v>207</v>
       </c>
     </row>
@@ -50206,7 +50366,7 @@
       <c r="G330" s="280">
         <v>40</v>
       </c>
-      <c r="H330" s="280">
+      <c r="H330" s="400">
         <v>800</v>
       </c>
       <c r="I330" s="280">
@@ -50253,11 +50413,13 @@
       <c r="F331" s="280">
         <v>8500</v>
       </c>
-      <c r="G331" s="280">
-        <v>10</v>
-      </c>
-      <c r="H331" s="287"/>
-      <c r="I331" s="280">
+      <c r="G331" s="396">
+        <v>10</v>
+      </c>
+      <c r="H331" s="402">
+        <v>200</v>
+      </c>
+      <c r="I331" s="398">
         <v>400</v>
       </c>
       <c r="J331" s="280">
@@ -50301,11 +50463,13 @@
       <c r="F332" s="280">
         <v>8500</v>
       </c>
-      <c r="G332" s="280">
-        <v>10</v>
-      </c>
-      <c r="H332" s="287"/>
-      <c r="I332" s="280">
+      <c r="G332" s="396">
+        <v>10</v>
+      </c>
+      <c r="H332" s="402">
+        <v>200</v>
+      </c>
+      <c r="I332" s="398">
         <v>400</v>
       </c>
       <c r="J332" s="280">
@@ -50349,11 +50513,13 @@
       <c r="F333" s="280">
         <v>10000</v>
       </c>
-      <c r="G333" s="280" t="s">
+      <c r="G333" s="396" t="s">
         <v>161</v>
       </c>
-      <c r="H333" s="287"/>
-      <c r="I333" s="280">
+      <c r="H333" s="402">
+        <v>200</v>
+      </c>
+      <c r="I333" s="398">
         <v>450</v>
       </c>
       <c r="J333" s="280">
@@ -50397,11 +50563,13 @@
       <c r="F334" s="280">
         <v>10000</v>
       </c>
-      <c r="G334" s="280" t="s">
+      <c r="G334" s="396" t="s">
         <v>161</v>
       </c>
-      <c r="H334" s="287"/>
-      <c r="I334" s="280">
+      <c r="H334" s="402">
+        <v>200</v>
+      </c>
+      <c r="I334" s="398">
         <v>450</v>
       </c>
       <c r="J334" s="280">
@@ -50445,11 +50613,13 @@
       <c r="F335" s="280">
         <v>5000</v>
       </c>
-      <c r="G335" s="280">
-        <v>10</v>
-      </c>
-      <c r="H335" s="287"/>
-      <c r="I335" s="280">
+      <c r="G335" s="396">
+        <v>10</v>
+      </c>
+      <c r="H335" s="402">
+        <v>200</v>
+      </c>
+      <c r="I335" s="398">
         <v>370</v>
       </c>
       <c r="J335" s="280" t="s">
@@ -50493,11 +50663,13 @@
       <c r="F336" s="301">
         <v>5000</v>
       </c>
-      <c r="G336" s="301">
-        <v>10</v>
-      </c>
-      <c r="H336" s="287"/>
-      <c r="I336" s="301">
+      <c r="G336" s="397">
+        <v>10</v>
+      </c>
+      <c r="H336" s="402">
+        <v>200</v>
+      </c>
+      <c r="I336" s="399">
         <v>370</v>
       </c>
       <c r="J336" s="301" t="s">
@@ -50544,7 +50716,7 @@
       <c r="G337" s="280">
         <v>12</v>
       </c>
-      <c r="H337" s="280">
+      <c r="H337" s="401">
         <v>500</v>
       </c>
       <c r="I337" s="280">
